--- a/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200526.xlsx
+++ b/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200526.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\lab\疫情可视化\每日数据更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8996F54A-50D1-4E35-8052-C1995446CCAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A166F1-8D2F-4597-9631-D5FE6ABE13DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -12304,8 +12304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -13540,10 +13540,10 @@
         <v>1</v>
       </c>
       <c r="P21" s="12">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R21" s="12">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Y21" s="12" t="s">
         <v>49</v>
